--- a/Final Project/data3.xlsx
+++ b/Final Project/data3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faria\GitRepositories\Assignments2021\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{161A7882-74C2-47A1-85FB-65EB29E2BFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC0A492-A379-4797-8996-72E99E948593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Year</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t>Import</t>
-  </si>
-  <si>
-    <t>Tradegdpratio</t>
-  </si>
-  <si>
-    <t>Population</t>
   </si>
 </sst>
 </file>
@@ -386,21 +380,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD67"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,14 +405,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1960</v>
       </c>
@@ -433,14 +419,8 @@
       <c r="D2">
         <v>6050892188.212142</v>
       </c>
-      <c r="E2">
-        <v>19.303943670807129</v>
-      </c>
-      <c r="F2">
-        <v>48013505</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1961</v>
       </c>
@@ -453,14 +433,8 @@
       <c r="D3">
         <v>8006169829.0716438</v>
       </c>
-      <c r="E3">
-        <v>22.482352374522311</v>
-      </c>
-      <c r="F3">
-        <v>49362834</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1962</v>
       </c>
@@ -473,14 +447,8 @@
       <c r="D4">
         <v>7944495541.3710175</v>
       </c>
-      <c r="E4">
-        <v>21.554848275691004</v>
-      </c>
-      <c r="F4">
-        <v>50752150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1963</v>
       </c>
@@ -493,14 +461,8 @@
       <c r="D5">
         <v>9290857836.2114697</v>
       </c>
-      <c r="E5">
-        <v>21.639763063135369</v>
-      </c>
-      <c r="F5">
-        <v>52202008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1964</v>
       </c>
@@ -513,14 +475,8 @@
       <c r="D6">
         <v>10806799120.979515</v>
       </c>
-      <c r="E6">
-        <v>24.150267810431068</v>
-      </c>
-      <c r="F6">
-        <v>53741721</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1965</v>
       </c>
@@ -533,14 +489,8 @@
       <c r="D7">
         <v>10763180002.534147</v>
       </c>
-      <c r="E7">
-        <v>23.029313713444786</v>
-      </c>
-      <c r="F7">
-        <v>55385114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1966</v>
       </c>
@@ -553,14 +503,8 @@
       <c r="D8">
         <v>11200085088.219368</v>
       </c>
-      <c r="E8">
-        <v>22.936102974996359</v>
-      </c>
-      <c r="F8">
-        <v>57157651</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1967</v>
       </c>
@@ -573,14 +517,8 @@
       <c r="D9">
         <v>13085822657.531626</v>
       </c>
-      <c r="E9">
-        <v>21.901860109321429</v>
-      </c>
-      <c r="F9">
-        <v>59034250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1968</v>
       </c>
@@ -593,14 +531,8 @@
       <c r="D10">
         <v>12366393983.470684</v>
       </c>
-      <c r="E10">
-        <v>19.937140376938316</v>
-      </c>
-      <c r="F10">
-        <v>60918452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1969</v>
       </c>
@@ -613,14 +545,8 @@
       <c r="D11">
         <v>13363340002.691185</v>
       </c>
-      <c r="E11">
-        <v>19.811321170025572</v>
-      </c>
-      <c r="F11">
-        <v>62679765</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1970</v>
       </c>
@@ -633,14 +559,8 @@
       <c r="D12">
         <v>14948464286.76651</v>
       </c>
-      <c r="E12">
-        <v>20.820596953836727</v>
-      </c>
-      <c r="F12">
-        <v>64232486</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1971</v>
       </c>
@@ -653,14 +573,8 @@
       <c r="D13">
         <v>11718866440.038172</v>
       </c>
-      <c r="E13">
-        <v>17.01907183727938</v>
-      </c>
-      <c r="F13">
-        <v>65531635</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1972</v>
       </c>
@@ -673,14 +587,8 @@
       <c r="D14">
         <v>11705994604.294352</v>
       </c>
-      <c r="E14">
-        <v>19.407289555938483</v>
-      </c>
-      <c r="F14">
-        <v>66625706</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1973</v>
       </c>
@@ -693,14 +601,8 @@
       <c r="D15">
         <v>5806697060.3002672</v>
       </c>
-      <c r="E15">
-        <v>18.394656510977438</v>
-      </c>
-      <c r="F15">
-        <v>67637541</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1974</v>
       </c>
@@ -713,14 +615,8 @@
       <c r="D16">
         <v>3638638801.8352113</v>
       </c>
-      <c r="E16">
-        <v>14.049621065410362</v>
-      </c>
-      <c r="F16">
-        <v>68742222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1975</v>
       </c>
@@ -733,14 +629,8 @@
       <c r="D17">
         <v>3244740709.5840812</v>
       </c>
-      <c r="E17">
-        <v>10.995626132386494</v>
-      </c>
-      <c r="F17">
-        <v>70066310</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1976</v>
       </c>
@@ -753,14 +643,8 @@
       <c r="D18">
         <v>4465700272.884594</v>
       </c>
-      <c r="E18">
-        <v>22.382274929661637</v>
-      </c>
-      <c r="F18">
-        <v>71652386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1977</v>
       </c>
@@ -773,14 +657,8 @@
       <c r="D19">
         <v>2470724735.0464954</v>
       </c>
-      <c r="E19">
-        <v>19.422198198369518</v>
-      </c>
-      <c r="F19">
-        <v>73463593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1978</v>
       </c>
@@ -793,14 +671,8 @@
       <c r="D20">
         <v>3919970863.9298553</v>
       </c>
-      <c r="E20">
-        <v>21.038514961189243</v>
-      </c>
-      <c r="F20">
-        <v>75450033</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1979</v>
       </c>
@@ -813,14 +685,8 @@
       <c r="D21">
         <v>4349730697.5685081</v>
       </c>
-      <c r="E21">
-        <v>21.907063543083364</v>
-      </c>
-      <c r="F21">
-        <v>77529040</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1980</v>
       </c>
@@ -833,14 +699,8 @@
       <c r="D22">
         <v>5804206661.4030018</v>
       </c>
-      <c r="E22">
-        <v>23.377231112234973</v>
-      </c>
-      <c r="F22">
-        <v>79639498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1981</v>
       </c>
@@ -853,14 +713,8 @@
       <c r="D23">
         <v>2756330832.6344595</v>
       </c>
-      <c r="E23">
-        <v>19.24715909090909</v>
-      </c>
-      <c r="F23">
-        <v>81767516</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1982</v>
       </c>
@@ -873,14 +727,8 @@
       <c r="D24">
         <v>3015549202.5891428</v>
       </c>
-      <c r="E24">
-        <v>20.606924193735203</v>
-      </c>
-      <c r="F24">
-        <v>83932132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1983</v>
       </c>
@@ -893,14 +741,8 @@
       <c r="D25">
         <v>2890481637.2682905</v>
       </c>
-      <c r="E25">
-        <v>20.316880621237072</v>
-      </c>
-      <c r="F25">
-        <v>86142490</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1984</v>
       </c>
@@ -913,14 +755,8 @@
       <c r="D26">
         <v>2703518280.6216302</v>
       </c>
-      <c r="E26">
-        <v>16.811727174903439</v>
-      </c>
-      <c r="F26">
-        <v>88416529</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1985</v>
       </c>
@@ -933,14 +769,8 @@
       <c r="D27">
         <v>2899305357.8788123</v>
       </c>
-      <c r="E27">
-        <v>18.22218462499935</v>
-      </c>
-      <c r="F27">
-        <v>90764180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1986</v>
       </c>
@@ -953,14 +783,8 @@
       <c r="D28">
         <v>2778736157.7308102</v>
       </c>
-      <c r="E28">
-        <v>17.018742508278208</v>
-      </c>
-      <c r="F28">
-        <v>93187593</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1987</v>
       </c>
@@ -973,14 +797,8 @@
       <c r="D29">
         <v>2937173816.5024242</v>
       </c>
-      <c r="E29">
-        <v>16.687797631296309</v>
-      </c>
-      <c r="F29">
-        <v>95671159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1988</v>
       </c>
@@ -993,14 +811,8 @@
       <c r="D30">
         <v>3157247747.8973889</v>
       </c>
-      <c r="E30">
-        <v>17.678064309961229</v>
-      </c>
-      <c r="F30">
-        <v>98186350</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1989</v>
       </c>
@@ -1013,14 +825,8 @@
       <c r="D31">
         <v>3632322832.7515931</v>
       </c>
-      <c r="E31">
-        <v>18.325174019069308</v>
-      </c>
-      <c r="F31">
-        <v>100695496</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1990</v>
       </c>
@@ -1033,14 +839,8 @@
       <c r="D32">
         <v>3970590457.8987961</v>
       </c>
-      <c r="E32">
-        <v>18.966502012538509</v>
-      </c>
-      <c r="F32">
-        <v>103171957</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1991</v>
       </c>
@@ -1053,14 +853,8 @@
       <c r="D33">
         <v>3374309255.6812735</v>
       </c>
-      <c r="E33">
-        <v>18.889826885074712</v>
-      </c>
-      <c r="F33">
-        <v>105599125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1992</v>
       </c>
@@ -1073,14 +867,8 @@
       <c r="D34">
         <v>3077685085.5436234</v>
       </c>
-      <c r="E34">
-        <v>19.934005502451058</v>
-      </c>
-      <c r="F34">
-        <v>107983708</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1993</v>
       </c>
@@ -1093,14 +881,8 @@
       <c r="D35">
         <v>4229321180.4235811</v>
       </c>
-      <c r="E35">
-        <v>23.121583069898193</v>
-      </c>
-      <c r="F35">
-        <v>110350641</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1994</v>
       </c>
@@ -1113,14 +895,8 @@
       <c r="D36">
         <v>3970863882.7564893</v>
       </c>
-      <c r="E36">
-        <v>22.865864554570319</v>
-      </c>
-      <c r="F36">
-        <v>112737684</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1995</v>
       </c>
@@ -1133,14 +909,8 @@
       <c r="D37">
         <v>5892618861.4943228</v>
       </c>
-      <c r="E37">
-        <v>28.209496076421807</v>
-      </c>
-      <c r="F37">
-        <v>115169933</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1996</v>
       </c>
@@ -1153,14 +923,8 @@
       <c r="D38">
         <v>6724041491.9581051</v>
       </c>
-      <c r="E38">
-        <v>26.07608772338093</v>
-      </c>
-      <c r="F38">
-        <v>117649927</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1997</v>
       </c>
@@ -1173,14 +937,8 @@
       <c r="D39">
         <v>6928534128.5032253</v>
       </c>
-      <c r="E39">
-        <v>26.325513390083259</v>
-      </c>
-      <c r="F39">
-        <v>120160571</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1998</v>
       </c>
@@ -1193,14 +951,8 @@
       <c r="D40">
         <v>7238306855.3947506</v>
       </c>
-      <c r="E40">
-        <v>27.880063402839379</v>
-      </c>
-      <c r="F40">
-        <v>122682818</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1999</v>
       </c>
@@ -1213,14 +965,8 @@
       <c r="D41">
         <v>7405191650.7361698</v>
       </c>
-      <c r="E41">
-        <v>28.387940557115787</v>
-      </c>
-      <c r="F41">
-        <v>125189655</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2000</v>
       </c>
@@ -1233,14 +979,8 @@
       <c r="D42">
         <v>8163033381.0386419</v>
       </c>
-      <c r="E42">
-        <v>29.321714361903794</v>
-      </c>
-      <c r="F42">
-        <v>127657862</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2001</v>
       </c>
@@ -1253,14 +993,8 @@
       <c r="D43">
         <v>9211871248.9107342</v>
       </c>
-      <c r="E43">
-        <v>32.098017073011661</v>
-      </c>
-      <c r="F43">
-        <v>130088709</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2002</v>
       </c>
@@ -1273,14 +1007,8 @@
       <c r="D44">
         <v>8765332797.1766815</v>
       </c>
-      <c r="E44">
-        <v>28.967380721164922</v>
-      </c>
-      <c r="F44">
-        <v>132478077</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2003</v>
       </c>
@@ -1293,14 +1021,8 @@
       <c r="D45">
         <v>9514729161.9762878</v>
       </c>
-      <c r="E45">
-        <v>27.65788490015796</v>
-      </c>
-      <c r="F45">
-        <v>134791598</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2004</v>
       </c>
@@ -1313,14 +1035,8 @@
       <c r="D46">
         <v>17578413340.416492</v>
       </c>
-      <c r="E46">
-        <v>26.858234149243138</v>
-      </c>
-      <c r="F46">
-        <v>136986429</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2005</v>
       </c>
@@ -1333,14 +1049,8 @@
       <c r="D47">
         <v>24269247327.241966</v>
       </c>
-      <c r="E47">
-        <v>34.396934864464974</v>
-      </c>
-      <c r="F47">
-        <v>139035505</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2006</v>
       </c>
@@ -1353,14 +1063,8 @@
       <c r="D48">
         <v>28683932320.285351</v>
       </c>
-      <c r="E48">
-        <v>38.11192443259214</v>
-      </c>
-      <c r="F48">
-        <v>140921154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2007</v>
       </c>
@@ -1373,14 +1077,8 @@
       <c r="D49">
         <v>33269355819.142338</v>
       </c>
-      <c r="E49">
-        <v>39.94238265317351</v>
-      </c>
-      <c r="F49">
-        <v>142660381</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2008</v>
       </c>
@@ -1393,14 +1091,8 @@
       <c r="D50">
         <v>32636828007.385624</v>
       </c>
-      <c r="E50">
-        <v>42.6209140325589</v>
-      </c>
-      <c r="F50">
-        <v>144304164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2009</v>
       </c>
@@ -1413,14 +1105,8 @@
       <c r="D51">
         <v>31788383084.066971</v>
       </c>
-      <c r="E51">
-        <v>40.092796223022958</v>
-      </c>
-      <c r="F51">
-        <v>145924795</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2010</v>
       </c>
@@ -1433,14 +1119,8 @@
       <c r="D52">
         <v>32006596023.144257</v>
       </c>
-      <c r="E52">
-        <v>37.802842670832149</v>
-      </c>
-      <c r="F52">
-        <v>147575433</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2011</v>
       </c>
@@ -1453,14 +1133,8 @@
       <c r="D53">
         <v>41337467664.933563</v>
       </c>
-      <c r="E53">
-        <v>47.420849835689815</v>
-      </c>
-      <c r="F53">
-        <v>149273134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2012</v>
       </c>
@@ -1473,14 +1147,8 @@
       <c r="D54">
         <v>45685573660.032028</v>
       </c>
-      <c r="E54">
-        <v>48.110922747678906</v>
-      </c>
-      <c r="F54">
-        <v>151005733</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2013</v>
       </c>
@@ -1493,14 +1161,8 @@
       <c r="D55">
         <v>46242093182.262947</v>
       </c>
-      <c r="E55">
-        <v>46.296402723975824</v>
-      </c>
-      <c r="F55">
-        <v>152761413</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2014</v>
       </c>
@@ -1513,14 +1175,8 @@
       <c r="D56">
         <v>46782350592.926857</v>
       </c>
-      <c r="E56">
-        <v>44.514080196809587</v>
-      </c>
-      <c r="F56">
-        <v>154517385</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2015</v>
       </c>
@@ -1533,14 +1189,8 @@
       <c r="D57">
         <v>48280651359.487068</v>
       </c>
-      <c r="E57">
-        <v>42.085996307038194</v>
-      </c>
-      <c r="F57">
-        <v>156256287</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2016</v>
       </c>
@@ -1553,14 +1203,8 @@
       <c r="D58">
         <v>44856643270.593781</v>
       </c>
-      <c r="E58">
-        <v>37.954296352991143</v>
-      </c>
-      <c r="F58">
-        <v>157977151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2017</v>
       </c>
@@ -1573,14 +1217,8 @@
       <c r="D59">
         <v>46146488365.016907</v>
       </c>
-      <c r="E59">
-        <v>35.304000090696739</v>
-      </c>
-      <c r="F59">
-        <v>159685421</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2018</v>
       </c>
@@ -1593,14 +1231,8 @@
       <c r="D60">
         <v>58611793184.686996</v>
       </c>
-      <c r="E60">
-        <v>38.244892987907065</v>
-      </c>
-      <c r="F60">
-        <v>161376713</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2019</v>
       </c>
@@ -1613,14 +1245,8 @@
       <c r="D61">
         <v>57427255511.890221</v>
       </c>
-      <c r="E61">
-        <v>36.759299748993371</v>
-      </c>
-      <c r="F61">
-        <v>163046173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2020</v>
       </c>
@@ -1632,12 +1258,6 @@
       </c>
       <c r="D62">
         <v>51432412568.852699</v>
-      </c>
-      <c r="E62">
-        <v>30.51946525365085</v>
-      </c>
-      <c r="F62">
-        <v>164689383</v>
       </c>
     </row>
   </sheetData>
